--- a/output/2017-07-01 to 2017-09-30.xlsx
+++ b/output/2017-07-01 to 2017-09-30.xlsx
@@ -124,7 +124,7 @@
     <t>['cfop_MITRA']</t>
   </si>
   <si>
-    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
+    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
   </si>
   <si>
     <t>unit(accumulative)</t>
